--- a/data/viewer/report_00.xlsx
+++ b/data/viewer/report_00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huongnv\app\scapp\api\data\viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834394C-D58A-4F43-8EEF-76B5B20C17B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AADFE-9318-4B57-883D-8A6C4F9909FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D71AB6B-3BD2-49E5-A654-8DF8EEF24E39}"/>
+    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{1D71AB6B-3BD2-49E5-A654-8DF8EEF24E39}"/>
   </bookViews>
   <sheets>
     <sheet name="00年" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>題名</t>
     <rPh sb="0" eb="2">
@@ -181,10 +181,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +503,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="2">
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="2">
@@ -574,30 +574,63 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
-        <f>SUM(N2:N3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="4">
+        <f>SUM(B2:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:N4" si="0">SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:N4"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -606,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AD570B-A537-4148-B829-DD281D699406}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -617,7 +650,7 @@
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,79 +664,49 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
-        <f>SUM(B2:M2)</f>
+      <c r="E2" s="2">
+        <f>SUM(B2:D2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2">
-        <f>SUM(B3:M3)</f>
+      <c r="E3" s="2">
+        <f>SUM(B3:D3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
-        <f>SUM(N2:N3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="4">
+        <f>SUM(B2:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:E4" si="0">SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:N4"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
